--- a/similarities/split_global/harmonic_similarity_timestamps_278.xlsx
+++ b/similarities/split_global/harmonic_similarity_timestamps_278.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,694 +484,738 @@
           <t>spotify_uri_track_2</t>
         </is>
       </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Is the shared pattern good for the demo? (Yes/No)</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Rate the goodness of the shared pattern (from 1 to 5)</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_27</t>
+          <t>jaah_58</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>isophonics_78</t>
+          <t>jaah_16</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>[['G:maj/B', 'C:maj', 'G:maj/D']]</t>
+          <t>['F:min7', 'Bb:7', 'Eb:maj6']</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>[['A', 'D', 'A']]</t>
+          <t>['B:min7', 'E:7', 'A:maj6']</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[('0:01:02.480000', '0:01:04.920000')]</t>
+          <t>('0:00:01.010000', '0:00:02.260000')</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[('0:00:39.724104', '0:00:47.769818')]</t>
+          <t>('0:00:20.300000', '0:00:23.100000')</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-27#t=62.48']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-58#t=1.01</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-78#t=39.724104']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-16#t=20.3</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>isophonics_194</t>
+          <t>isophonics_164</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_202</t>
+          <t>schubert-winterreise_118</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>[['D', 'G', 'D']]</t>
+          <t>['Eb', 'Bb:7', 'Eb']</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>[['F:maj/A', 'A#:maj', 'F:maj/C']]</t>
+          <t>['C:maj/G', 'G:7', 'C:maj']</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[('0:02:24.085784', '0:02:29.240614')]</t>
+          <t>('0:00:48.001000', '0:00:54.307000')</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[('0:01:01.480000', '0:01:03.580000')]</t>
+          <t>('0:00:31.740000', '0:00:33.880000')</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-194#t=144.085784']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-164#t=48.001</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-202#t=61.48']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-118#t=31.74</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr"/>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_135</t>
+          <t>isophonics_235</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_14</t>
+          <t>schubert-winterreise_119</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>[['F#:7/B', 'F#:(3,5,b7,b9)/B', 'B:min']]</t>
+          <t>['Bb:7', 'Eb', 'Bb']</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>[['A:7', 'A:(3,5,b7,b9)/G', 'D:min/F']]</t>
+          <t>['G:7', 'C:maj', 'G:maj']</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[('0:00:04.820000', '0:00:22.080000')]</t>
+          <t>('0:00:49.981485', '0:00:59.292687')</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[('0:02:45.140000', '0:02:48.700000')]</t>
+          <t>('0:00:05.360000', '0:00:11.380000')</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-135#t=4.82']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-235#t=49.981485</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-14#t=165.14']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-119#t=5.36</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_55</t>
+          <t>jaah_30</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>isophonics_43</t>
+          <t>schubert-winterreise_13</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>[['G:maj', 'C:maj/G', 'G:maj']]</t>
+          <t>['Bb', 'F', 'Bb']</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>[['E', 'A', 'E']]</t>
+          <t>['B:maj', 'F#:maj', 'B:maj']</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[('0:00:16.820000', '0:00:23.180000')]</t>
+          <t>('0:00:00.460000', '0:00:05.060000')</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[('0:00:03.884104', '0:00:23.632675')]</t>
+          <t>('0:00:10.200000', '0:00:12.320000')</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-55#t=16.82']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-30#t=0.46</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-43#t=3.884104']</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-13#t=10.2</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_51</t>
+          <t>schubert-winterreise_210</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_43</t>
+          <t>schubert-winterreise_112</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>[['D:hdim7/F', 'C:min/D#', 'D:hdim7/F', 'C:min/D#']]</t>
+          <t>['G:min', 'D:7/G', 'G:min', 'D:maj/G', 'G:min']</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>[['C#:hdim7/B', 'B:min', 'C#:hdim7/B', 'B:min']]</t>
+          <t>['D#:min', 'A#:7', 'D#:min', 'A#:maj', 'D#:min']</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[('0:00:55.820000', '0:01:04.420000')]</t>
+          <t>('0:00:20.560000', '0:00:48.700000')</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[('0:00:07.420000', '0:00:27.640000')]</t>
+          <t>('0:00:11.420000', '0:00:19.140000')</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-51#t=55.82']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-210#t=20.56</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-43#t=7.42']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-112#t=11.42</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr">
         <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
-        </is>
-      </c>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_152</t>
+          <t>isophonics_165</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_114</t>
+          <t>schubert-winterreise_74</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>[['A:min/E', 'E:(3,5,b7,b9)', 'A:min']]</t>
+          <t>['A', 'D', 'A', 'D', 'A']</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>[['D:min', 'A:(3,5,b7,b9)', 'D:min']]</t>
+          <t>['F:maj', 'A#:maj', 'F:maj', 'A#:maj', 'F:maj']</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[('0:01:00.760000', '0:01:06.820000')]</t>
+          <t>('0:00:03.599751', '0:00:08.760294')</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[('0:01:38.700000', '0:01:58.800000')]</t>
+          <t>('0:02:09.380000', '0:02:15.340000')</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-152#t=60.76']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-165#t=3.599751</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-114#t=98.7']</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
-        </is>
-      </c>
-      <c r="J7" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-74#t=129.38</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>isophonics_8</t>
+          <t>isophonics_96</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_117</t>
+          <t>isophonics_231</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>[['B:7', 'E', 'G#']]</t>
+          <t>['C:maj', 'G/3', 'D:maj']</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>[['D:7', 'G:maj', 'B:maj/D#']]</t>
+          <t>['F', 'C', 'G']</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[('0:00:14.032548', '0:00:17.979940')]</t>
+          <t>('0:01:19.220000', '0:01:24.701000')</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[('0:00:54.260000', '0:01:00.120000')]</t>
+          <t>('0:00:08.342335', '0:00:11.175170')</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-8#t=14.032548']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-96#t=79.22</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-117#t=54.26']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-231#t=8.342335</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr"/>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>spotify:track:4F1AgKpuFRMLEgtPETVwZk</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>jaah_21</t>
+          <t>schubert-winterreise_163</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>isophonics_21</t>
+          <t>isophonics_74</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>[['Db/3', 'Db:min/b3', 'Ab/b5']]</t>
+          <t>['F:maj', 'A#:maj', 'F:maj', 'A#:maj', 'F:maj']</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>[['F', 'F:min', 'C']]</t>
+          <t>['E', 'A', 'E', 'A', 'E']</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[('0:00:04.300000', '0:00:05.850000')]</t>
+          <t>('0:01:51.920000', '0:01:55.980000')</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[('0:00:38.588000', '0:00:43.202000')]</t>
+          <t>('0:00:37.995918', '0:01:09.517005')</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-21#t=4.3']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-163#t=111.92</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-21#t=38.588']</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-74#t=37.995918</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
       <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>isophonics_152</t>
+          <t>schubert-winterreise_63</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_113</t>
+          <t>schubert-winterreise_168</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>[['A/3', 'D', 'A']]</t>
+          <t>['C:min', 'F:min', 'C:min/G']</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>[['F:maj', 'A#:maj', 'F:maj']]</t>
+          <t>['A#:min', 'D#:min/A#', 'A#:min']</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[('0:00:04.250000', '0:00:09.179000')]</t>
+          <t>('0:00:09.600000', '0:00:13.300000')</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[('0:02:03.220000', '0:02:06.880000')]</t>
+          <t>('0:00:25.480000', '0:00:32.800000')</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-152#t=4.25']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-63#t=9.6</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-113#t=123.22']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-168#t=25.48</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>isophonics_259</t>
+          <t>schubert-winterreise_10</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>isophonics_62</t>
+          <t>schubert-winterreise_117</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>[['B:min/4', 'F#:min', 'B:min']]</t>
+          <t>['C:maj', 'G:7', 'C:maj', 'G:7', 'C:maj']</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>[['F#:min', 'C#:min', 'F#:min']]</t>
+          <t>['G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj']</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[('0:00:33.658000', '0:00:37.859000')]</t>
+          <t>('0:00:00.800000', '0:00:10.540000')</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[('0:00:09.224693', '0:00:15.343151')]</t>
+          <t>('0:00:07.160000', '0:00:20.240000')</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-259#t=33.658']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-10#t=0.8</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-62#t=9.224693']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-117#t=7.16</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_167</t>
+          <t>jaah_66</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>isophonics_156</t>
+          <t>schubert-winterreise_68</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>[['C:maj', 'G:maj', 'C:maj', 'G:maj']]</t>
+          <t>['Eb:7', 'Ab', 'Eb:7', 'Ab', 'Eb:7']</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>[['A', 'E', 'A', 'E']]</t>
+          <t>['D:7', 'G:maj', 'D:7', 'G:maj', 'D:7']</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[('0:00:09.540000', '0:00:12.040000')]</t>
+          <t>('0:00:55.230000', '0:01:07.670000')</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[('0:00:00.421247', '0:00:07.505864')]</t>
+          <t>('0:00:33', '0:00:45.840000')</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-167#t=9.54']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-66#t=55.23</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-156#t=0.421247']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-68#t=33.0</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>jaah_14</t>
+          <t>schubert-winterreise_33</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>jaah_41</t>
+          <t>isophonics_155</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>[['Eb:7', 'Ab', 'Eb:7', 'Ab']]</t>
+          <t>['G:maj/B', 'C:maj', 'G:maj/D']</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>[['C:7', 'F', 'C:7', 'F']]</t>
+          <t>['Ab', 'Db/5', 'Ab']</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[('0:00:22.010000', '0:00:37.550000')]</t>
+          <t>('0:01:03.600000', '0:01:06.040000')</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[('0:00:10.130000', '0:00:14.450000')]</t>
+          <t>('0:00:00.243000', '0:00:09.120000')</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-14#t=22.01']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-33#t=63.6</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-41#t=10.13']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-155#t=0.243</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>isophonics_291</t>
+          <t>schubert-winterreise_74</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_199</t>
+          <t>isophonics_261</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>[['D', 'G', 'D']]</t>
+          <t>['F:maj', 'A#:maj', 'F:maj']</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>[['G:maj/B', 'C:maj', 'G:maj/D']]</t>
+          <t>['G/3', 'C', 'G']</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[('0:00:03.044470', '0:00:11.035850')]</t>
+          <t>('0:02:09.380000', '0:02:14.380000')</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[('0:01:02.200000', '0:01:04.400000')]</t>
+          <t>('0:00:13.079206', '0:00:17.500916')</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-291#t=3.04447']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-74#t=129.38</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-199#t=62.2']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-261#t=13.079206</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>spotify:track:06ypiqmILMdVeaiErMFA91</t>
-        </is>
-      </c>
-      <c r="J14" t="inlineStr"/>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>spotify:track:2B4Y9u4ERAFiMo13XPJyGP</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_114</t>
+          <t>schubert-winterreise_209</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>isophonics_183</t>
+          <t>schubert-winterreise_133</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>[['D:maj', 'A:7', 'D:maj']]</t>
+          <t>['D:maj/A', 'G:maj', 'D:maj/A']</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>[['D', 'A:7', 'D']]</t>
+          <t>['G:maj/B', 'C:maj', 'G:maj/D']</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[('0:00:01.640000', '0:00:10.360000')]</t>
+          <t>('0:02:18.800000', '0:02:24.460000')</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[('0:01:09.520470', '0:01:14.942329')]</t>
+          <t>('0:01:01.600000', '0:01:03.840000')</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-114#t=1.64']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-209#t=138.8</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-183#t=69.52047']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-133#t=61.6</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_94</t>
+          <t>schubert-winterreise_180</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_197</t>
+          <t>schubert-winterreise_124</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>[['A#:min/F', 'F:7', 'A#:min'], ['A#:min', 'D#:min/A#', 'A#:min']]</t>
+          <t>['G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min']</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>[['F#:min', 'C#:7', 'F#:min'], ['F#:min', 'B:min/F#', 'F#:min']]</t>
+          <t>['F:min/C', 'C', 'F:min/C', 'C', 'F:min', 'C', 'F:min']</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[('0:01:24.620000', '0:01:31.740000'), ('0:00:30.240000', '0:00:38.500000')]</t>
+          <t>('0:00:18.100000', '0:00:45.980000')</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[('0:00:02.860000', '0:00:07.500000'), ('0:00:00.380000', '0:00:03.700000')]</t>
+          <t>('0:00:48', '0:01:02.360000')</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-94#t=84.62', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-94#t=30.24']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-180#t=18.1</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-197#t=2.86', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-197#t=0.38']</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
-      <c r="J16" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-124#t=48.0</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
